--- a/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3423AA94-F18D-4B15-A2B1-3ABE3895FD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A9CB18-E3E5-4390-BE1E-1129454DC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E42CA7E9-50D0-4867-A75D-E93716281555}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03421534-4840-4BCE-8BCB-9CE130AB026E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="322">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -74,910 +74,931 @@
     <t>19,7%</t>
   </si>
   <si>
-    <t>14,13%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>27,37%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
+    <t>28,57%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>30,98%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4968AC8A-558C-4B8F-92A3-5CE73519E01C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89041B4-1C1C-46E8-8FC0-34F7D966F25C}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1827,10 +1848,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -1839,13 +1860,13 @@
         <v>81563</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -1854,13 +1875,13 @@
         <v>144191</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1896,13 @@
         <v>120564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -1890,13 +1911,13 @@
         <v>191842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -1905,13 +1926,13 @@
         <v>312405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1947,13 @@
         <v>178524</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
@@ -1941,13 +1962,13 @@
         <v>189059</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>280</v>
@@ -1956,13 +1977,13 @@
         <v>367583</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1998,13 @@
         <v>53540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -1992,13 +2013,13 @@
         <v>29742</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -2007,13 +2028,13 @@
         <v>83282</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2049,13 @@
         <v>11655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2043,13 +2064,13 @@
         <v>6212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2058,13 +2079,13 @@
         <v>17867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,7 +2141,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2132,13 +2153,13 @@
         <v>103608</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -2147,13 +2168,13 @@
         <v>112874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -2162,10 +2183,10 @@
         <v>216482</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>115</v>
@@ -2315,13 +2336,13 @@
         <v>79388</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,13 +2357,13 @@
         <v>13624</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2351,13 +2372,13 @@
         <v>9341</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2366,13 +2387,13 @@
         <v>22965</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,7 +2449,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2440,13 +2461,13 @@
         <v>151724</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -2455,10 +2476,10 @@
         <v>179491</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>157</v>
@@ -2650,7 +2671,7 @@
         <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2659,13 +2680,13 @@
         <v>8472</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -2674,13 +2695,13 @@
         <v>86319</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2757,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2769,13 @@
         <v>168906</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>330</v>
@@ -2763,13 +2784,13 @@
         <v>197601</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>518</v>
@@ -2778,13 +2799,13 @@
         <v>366507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2820,13 @@
         <v>206953</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -2814,13 +2835,13 @@
         <v>224113</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>620</v>
@@ -2829,13 +2850,13 @@
         <v>431066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2871,13 @@
         <v>183016</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>242</v>
@@ -2865,13 +2886,13 @@
         <v>145736</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>438</v>
@@ -2880,13 +2901,13 @@
         <v>328752</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2922,13 @@
         <v>30959</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -2916,13 +2937,13 @@
         <v>19171</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -2931,13 +2952,13 @@
         <v>50130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2973,13 @@
         <v>9444</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -2967,13 +2988,13 @@
         <v>8770</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -2982,13 +3003,13 @@
         <v>18215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3065,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3077,13 @@
         <v>303578</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H34" s="7">
         <v>848</v>
@@ -3071,13 +3092,13 @@
         <v>560917</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M34" s="7">
         <v>1313</v>
@@ -3086,13 +3107,13 @@
         <v>864495</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3128,13 @@
         <v>212402</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="H35" s="7">
         <v>529</v>
@@ -3122,13 +3143,13 @@
         <v>277566</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M35" s="7">
         <v>840</v>
@@ -3137,13 +3158,13 @@
         <v>489967</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3179,13 @@
         <v>142304</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H36" s="7">
         <v>276</v>
@@ -3173,13 +3194,13 @@
         <v>154036</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>474</v>
@@ -3188,13 +3209,13 @@
         <v>296340</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3230,13 @@
         <v>29694</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="H37" s="7">
         <v>38</v>
@@ -3224,13 +3245,13 @@
         <v>22428</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -3239,13 +3260,13 @@
         <v>52122</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>58</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3281,13 @@
         <v>7739</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>190</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -3275,13 +3296,13 @@
         <v>6077</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>268</v>
+        <v>105</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -3290,13 +3311,13 @@
         <v>13816</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,13 +3385,13 @@
         <v>864839</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="H40" s="7">
         <v>1743</v>
@@ -3379,13 +3400,13 @@
         <v>1182155</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="M40" s="7">
         <v>2737</v>
@@ -3394,13 +3415,13 @@
         <v>2046994</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,13 +3436,13 @@
         <v>1064746</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>1940</v>
@@ -3430,13 +3451,13 @@
         <v>1320327</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>3058</v>
@@ -3445,13 +3466,13 @@
         <v>2385073</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3487,13 @@
         <v>1073296</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="H42" s="7">
         <v>1392</v>
@@ -3481,13 +3502,13 @@
         <v>1061610</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="M42" s="7">
         <v>2382</v>
@@ -3496,13 +3517,13 @@
         <v>2134906</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3538,13 @@
         <v>239094</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="H43" s="7">
         <v>214</v>
@@ -3532,13 +3553,13 @@
         <v>182282</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>301</v>
+        <v>57</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M43" s="7">
         <v>412</v>
@@ -3547,13 +3568,13 @@
         <v>421377</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3589,13 @@
         <v>138851</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H44" s="7">
         <v>59</v>
@@ -3583,13 +3604,13 @@
         <v>50135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>143</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>130</v>
@@ -3598,13 +3619,13 @@
         <v>188986</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,7 +3681,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A9CB18-E3E5-4390-BE1E-1129454DC992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1888297D-AC79-4ABA-BEB1-F9451DE3542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03421534-4840-4BCE-8BCB-9CE130AB026E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B227F06F-5092-451E-82B1-6A47A80F5106}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89041B4-1C1C-46E8-8FC0-34F7D966F25C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6366A159-8EBC-419F-ADAE-97A2DC7ECF76}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1888297D-AC79-4ABA-BEB1-F9451DE3542D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20F5733-9477-496A-AD11-E6FE6C597C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B227F06F-5092-451E-82B1-6A47A80F5106}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E51878-F8EB-44E8-B322-CA5637B3A11E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="315">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>19,7%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>23,59%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>38,65%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
   </si>
   <si>
     <t>38,08%</t>
   </si>
   <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>38,37%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,28 +164,28 @@
     <t>13,16%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -194,19 +194,19 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -215,7 +215,7 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>6,99%</t>
+    <t>7,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -227,778 +227,757 @@
     <t>14,67%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
+    <t>19,33%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>38,49%</t>
   </si>
   <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
   </si>
   <si>
     <t>33,76%</t>
   </si>
   <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
   </si>
   <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>3,89%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1413,7 +1392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6366A159-8EBC-419F-ADAE-97A2DC7ECF76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9203D856-C617-42FE-BD58-119902202D35}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1848,10 +1827,10 @@
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -1860,13 +1839,13 @@
         <v>81563</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -1875,13 +1854,13 @@
         <v>144191</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1896,13 +1875,13 @@
         <v>120564</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
@@ -1911,13 +1890,13 @@
         <v>191842</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -1926,13 +1905,13 @@
         <v>312405</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,13 +1926,13 @@
         <v>178524</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
@@ -1962,13 +1941,13 @@
         <v>189059</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>280</v>
@@ -1977,13 +1956,13 @@
         <v>367583</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,13 +1977,13 @@
         <v>53540</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -2013,13 +1992,13 @@
         <v>29742</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -2028,13 +2007,13 @@
         <v>83282</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2028,13 @@
         <v>11655</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -2064,13 +2043,13 @@
         <v>6212</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2079,13 +2058,13 @@
         <v>17867</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2153,13 +2132,13 @@
         <v>103608</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>177</v>
@@ -2168,13 +2147,13 @@
         <v>112874</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>285</v>
@@ -2183,10 +2162,10 @@
         <v>216482</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>115</v>
@@ -2336,13 +2315,13 @@
         <v>79388</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,13 +2336,13 @@
         <v>13624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -2372,13 +2351,13 @@
         <v>9341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2387,13 +2366,13 @@
         <v>22965</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,7 +2428,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2461,13 +2440,13 @@
         <v>151724</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>272</v>
@@ -2476,10 +2455,10 @@
         <v>179491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>157</v>
@@ -2671,7 +2650,7 @@
         <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -2680,13 +2659,13 @@
         <v>8472</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -2695,13 +2674,13 @@
         <v>86319</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2736,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2748,13 @@
         <v>168906</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>330</v>
@@ -2784,13 +2763,13 @@
         <v>197601</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>518</v>
@@ -2799,13 +2778,13 @@
         <v>366507</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2799,13 @@
         <v>206953</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
@@ -2835,13 +2814,13 @@
         <v>224113</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>620</v>
@@ -2850,13 +2829,13 @@
         <v>431066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2850,13 @@
         <v>183016</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>242</v>
@@ -2886,13 +2865,13 @@
         <v>145736</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>438</v>
@@ -2901,13 +2880,13 @@
         <v>328752</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,13 +2901,13 @@
         <v>30959</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -2937,13 +2916,13 @@
         <v>19171</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -2952,13 +2931,13 @@
         <v>50130</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,13 +2952,13 @@
         <v>9444</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -2988,13 +2967,13 @@
         <v>8770</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
@@ -3003,13 +2982,13 @@
         <v>18215</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,7 +3044,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3077,13 +3056,13 @@
         <v>303578</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>848</v>
@@ -3092,13 +3071,13 @@
         <v>560917</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>1313</v>
@@ -3107,13 +3086,13 @@
         <v>864495</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3107,13 @@
         <v>212402</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>529</v>
@@ -3143,13 +3122,13 @@
         <v>277566</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>840</v>
@@ -3158,13 +3137,13 @@
         <v>489967</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3158,13 @@
         <v>142304</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>276</v>
@@ -3194,13 +3173,13 @@
         <v>154036</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>474</v>
@@ -3209,13 +3188,13 @@
         <v>296340</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3209,13 @@
         <v>29694</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>38</v>
@@ -3245,13 +3224,13 @@
         <v>22428</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -3260,13 +3239,13 @@
         <v>52122</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>58</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3260,13 @@
         <v>7739</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>149</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -3296,13 +3275,13 @@
         <v>6077</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>21</v>
@@ -3311,13 +3290,13 @@
         <v>13816</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3364,13 @@
         <v>864839</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>1743</v>
@@ -3400,13 +3379,13 @@
         <v>1182155</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>2737</v>
@@ -3415,13 +3394,13 @@
         <v>2046994</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3415,13 @@
         <v>1064746</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>1940</v>
@@ -3451,13 +3430,13 @@
         <v>1320327</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>3058</v>
@@ -3466,13 +3445,13 @@
         <v>2385073</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3466,13 @@
         <v>1073296</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>1392</v>
@@ -3502,13 +3481,13 @@
         <v>1061610</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M42" s="7">
         <v>2382</v>
@@ -3517,13 +3496,13 @@
         <v>2134906</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3517,13 @@
         <v>239094</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>214</v>
@@ -3553,13 +3532,13 @@
         <v>182282</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>57</v>
+        <v>301</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M43" s="7">
         <v>412</v>
@@ -3568,13 +3547,13 @@
         <v>421377</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3568,13 @@
         <v>138851</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H44" s="7">
         <v>59</v>
@@ -3604,13 +3583,13 @@
         <v>50135</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M44" s="7">
         <v>130</v>
@@ -3619,13 +3598,13 @@
         <v>188986</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3660,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A20F5733-9477-496A-AD11-E6FE6C597C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBC46C4-4C4A-4A16-9E65-99103AB2A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94E51878-F8EB-44E8-B322-CA5637B3A11E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{38010679-C6BB-494C-82A5-B41D27C778A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="369">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -65,919 +65,1081 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>19,7%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>35,54%</t>
   </si>
   <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1392,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9203D856-C617-42FE-BD58-119902202D35}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2A0ACD-7F59-4459-8172-F604C82A8D6F}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1513,7 +1675,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>74394</v>
+        <v>74892</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1528,7 +1690,7 @@
         <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>49710</v>
+        <v>44348</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1543,7 +1705,7 @@
         <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>124104</v>
+        <v>119240</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1564,7 +1726,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>89082</v>
+        <v>95985</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1579,7 +1741,7 @@
         <v>73</v>
       </c>
       <c r="I5" s="7">
-        <v>120686</v>
+        <v>105585</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1594,7 +1756,7 @@
         <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>209768</v>
+        <v>201570</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1615,7 +1777,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="7">
-        <v>145970</v>
+        <v>161858</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1630,7 +1792,7 @@
         <v>74</v>
       </c>
       <c r="I6" s="7">
-        <v>134773</v>
+        <v>122326</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1645,7 +1807,7 @@
         <v>143</v>
       </c>
       <c r="N6" s="7">
-        <v>280743</v>
+        <v>284184</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1666,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>49691</v>
+        <v>52469</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1681,7 +1843,7 @@
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>37507</v>
+        <v>31355</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1696,7 +1858,7 @@
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>87198</v>
+        <v>83824</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1717,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>18542</v>
+        <v>14782</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -1732,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>11262</v>
+        <v>8599</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -1747,7 +1909,7 @@
         <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>29804</v>
+        <v>23381</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -1768,7 +1930,7 @@
         <v>172</v>
       </c>
       <c r="D9" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -1783,7 +1945,7 @@
         <v>206</v>
       </c>
       <c r="I9" s="7">
-        <v>353938</v>
+        <v>312213</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -1798,7 +1960,7 @@
         <v>378</v>
       </c>
       <c r="N9" s="7">
-        <v>731617</v>
+        <v>712200</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -1821,46 +1983,46 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>62628</v>
+        <v>60961</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>81563</v>
+        <v>74316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>144191</v>
+        <v>135278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,46 +2034,46 @@
         <v>94</v>
       </c>
       <c r="D11" s="7">
-        <v>120564</v>
+        <v>116440</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>180</v>
       </c>
       <c r="I11" s="7">
-        <v>191842</v>
+        <v>173090</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
       </c>
       <c r="N11" s="7">
-        <v>312405</v>
+        <v>289530</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,46 +2085,46 @@
         <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>178524</v>
+        <v>184175</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>161</v>
       </c>
       <c r="I12" s="7">
-        <v>189059</v>
+        <v>232193</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>280</v>
       </c>
       <c r="N12" s="7">
-        <v>367583</v>
+        <v>416368</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,46 +2136,46 @@
         <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>53540</v>
+        <v>49877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>29742</v>
+        <v>26120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>83282</v>
+        <v>75997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2187,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>11655</v>
+        <v>10463</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>99</v>
@@ -2040,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>6212</v>
+        <v>5621</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>100</v>
@@ -2055,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>17867</v>
+        <v>16084</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>103</v>
@@ -2076,7 +2238,7 @@
         <v>301</v>
       </c>
       <c r="D15" s="7">
-        <v>426911</v>
+        <v>421917</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2091,7 +2253,7 @@
         <v>459</v>
       </c>
       <c r="I15" s="7">
-        <v>498418</v>
+        <v>511341</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2106,7 +2268,7 @@
         <v>760</v>
       </c>
       <c r="N15" s="7">
-        <v>925329</v>
+        <v>933258</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2129,7 +2291,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>103608</v>
+        <v>99252</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -2144,7 +2306,7 @@
         <v>177</v>
       </c>
       <c r="I16" s="7">
-        <v>112874</v>
+        <v>104073</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -2159,7 +2321,7 @@
         <v>285</v>
       </c>
       <c r="N16" s="7">
-        <v>216482</v>
+        <v>203325</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -2180,7 +2342,7 @@
         <v>206</v>
       </c>
       <c r="D17" s="7">
-        <v>212619</v>
+        <v>204854</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -2195,7 +2357,7 @@
         <v>330</v>
       </c>
       <c r="I17" s="7">
-        <v>225659</v>
+        <v>209164</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -2210,7 +2372,7 @@
         <v>536</v>
       </c>
       <c r="N17" s="7">
-        <v>438278</v>
+        <v>414018</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -2231,7 +2393,7 @@
         <v>182</v>
       </c>
       <c r="D18" s="7">
-        <v>187188</v>
+        <v>183481</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>125</v>
@@ -2246,7 +2408,7 @@
         <v>277</v>
       </c>
       <c r="I18" s="7">
-        <v>194564</v>
+        <v>183411</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>128</v>
@@ -2261,7 +2423,7 @@
         <v>459</v>
       </c>
       <c r="N18" s="7">
-        <v>381751</v>
+        <v>366892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2282,7 +2444,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>40213</v>
+        <v>36499</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -2297,7 +2459,7 @@
         <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>39175</v>
+        <v>35771</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
@@ -2312,7 +2474,7 @@
         <v>88</v>
       </c>
       <c r="N19" s="7">
-        <v>79388</v>
+        <v>72270</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -2333,7 +2495,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>13624</v>
+        <v>12251</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
@@ -2348,7 +2510,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>9341</v>
+        <v>8309</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -2363,7 +2525,7 @@
         <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>22965</v>
+        <v>20559</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2384,7 +2546,7 @@
         <v>546</v>
       </c>
       <c r="D21" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2399,7 +2561,7 @@
         <v>844</v>
       </c>
       <c r="I21" s="7">
-        <v>581613</v>
+        <v>540727</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2414,7 +2576,7 @@
         <v>1390</v>
       </c>
       <c r="N21" s="7">
-        <v>1138865</v>
+        <v>1077065</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2437,7 +2599,7 @@
         <v>152</v>
       </c>
       <c r="D22" s="7">
-        <v>151724</v>
+        <v>143482</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>153</v>
@@ -2452,31 +2614,31 @@
         <v>272</v>
       </c>
       <c r="I22" s="7">
-        <v>179491</v>
+        <v>164157</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>424</v>
       </c>
       <c r="N22" s="7">
-        <v>331215</v>
+        <v>307639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,46 +2650,46 @@
         <v>230</v>
       </c>
       <c r="D23" s="7">
-        <v>223126</v>
+        <v>210862</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>445</v>
       </c>
       <c r="I23" s="7">
-        <v>280462</v>
+        <v>257289</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
         <v>675</v>
       </c>
       <c r="N23" s="7">
-        <v>503588</v>
+        <v>468151</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,46 +2701,46 @@
         <v>226</v>
       </c>
       <c r="D24" s="7">
-        <v>236295</v>
+        <v>232704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
         <v>362</v>
       </c>
       <c r="I24" s="7">
-        <v>243441</v>
+        <v>251505</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
         <v>588</v>
       </c>
       <c r="N24" s="7">
-        <v>479736</v>
+        <v>484210</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,46 +2752,46 @@
         <v>32</v>
       </c>
       <c r="D25" s="7">
-        <v>34998</v>
+        <v>33003</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H25" s="7">
         <v>48</v>
       </c>
       <c r="I25" s="7">
-        <v>34259</v>
+        <v>31117</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
       </c>
       <c r="N25" s="7">
-        <v>69257</v>
+        <v>64120</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,46 +2803,46 @@
         <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>77847</v>
+        <v>267736</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>8472</v>
+        <v>7748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
       </c>
       <c r="N26" s="7">
-        <v>86319</v>
+        <v>275484</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,7 +2854,7 @@
         <v>665</v>
       </c>
       <c r="D27" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2707,7 +2869,7 @@
         <v>1139</v>
       </c>
       <c r="I27" s="7">
-        <v>746125</v>
+        <v>711816</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -2722,7 +2884,7 @@
         <v>1804</v>
       </c>
       <c r="N27" s="7">
-        <v>1470116</v>
+        <v>1599603</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -2736,7 +2898,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2745,46 +2907,46 @@
         <v>188</v>
       </c>
       <c r="D28" s="7">
-        <v>168906</v>
+        <v>158106</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>330</v>
       </c>
       <c r="I28" s="7">
-        <v>197601</v>
+        <v>180745</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>518</v>
       </c>
       <c r="N28" s="7">
-        <v>366507</v>
+        <v>338850</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,46 +2958,46 @@
         <v>237</v>
       </c>
       <c r="D29" s="7">
-        <v>206953</v>
+        <v>192148</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>383</v>
       </c>
       <c r="I29" s="7">
-        <v>224113</v>
+        <v>205862</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>620</v>
       </c>
       <c r="N29" s="7">
-        <v>431066</v>
+        <v>398010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,46 +3009,46 @@
         <v>196</v>
       </c>
       <c r="D30" s="7">
-        <v>183016</v>
+        <v>173745</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7">
         <v>242</v>
       </c>
       <c r="I30" s="7">
-        <v>145736</v>
+        <v>134545</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>438</v>
       </c>
       <c r="N30" s="7">
-        <v>328752</v>
+        <v>308290</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,46 +3060,46 @@
         <v>32</v>
       </c>
       <c r="D31" s="7">
-        <v>30959</v>
+        <v>28239</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
       </c>
       <c r="I31" s="7">
-        <v>19171</v>
+        <v>17362</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
       </c>
       <c r="N31" s="7">
-        <v>50130</v>
+        <v>45601</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,46 +3111,46 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>9444</v>
+        <v>8161</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>8770</v>
+        <v>7825</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M32" s="7">
         <v>22</v>
       </c>
       <c r="N32" s="7">
-        <v>18215</v>
+        <v>15987</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3162,7 @@
         <v>662</v>
       </c>
       <c r="D33" s="7">
-        <v>599278</v>
+        <v>560399</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -3015,7 +3177,7 @@
         <v>999</v>
       </c>
       <c r="I33" s="7">
-        <v>595392</v>
+        <v>546339</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3030,7 +3192,7 @@
         <v>1661</v>
       </c>
       <c r="N33" s="7">
-        <v>1194669</v>
+        <v>1106738</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -3044,55 +3206,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>465</v>
+        <v>224</v>
       </c>
       <c r="D34" s="7">
-        <v>303578</v>
+        <v>142592</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H34" s="7">
-        <v>848</v>
+        <v>346</v>
       </c>
       <c r="I34" s="7">
-        <v>560917</v>
+        <v>373967</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M34" s="7">
-        <v>1313</v>
+        <v>570</v>
       </c>
       <c r="N34" s="7">
-        <v>864495</v>
+        <v>516559</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,49 +3263,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>311</v>
+        <v>187</v>
       </c>
       <c r="D35" s="7">
-        <v>212402</v>
+        <v>117466</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
-        <v>529</v>
+        <v>282</v>
       </c>
       <c r="I35" s="7">
-        <v>277566</v>
+        <v>134000</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M35" s="7">
-        <v>840</v>
+        <v>469</v>
       </c>
       <c r="N35" s="7">
-        <v>489967</v>
+        <v>251465</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,49 +3314,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="D36" s="7">
-        <v>142304</v>
+        <v>81675</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>109</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
-        <v>276</v>
+        <v>174</v>
       </c>
       <c r="I36" s="7">
-        <v>154036</v>
+        <v>85295</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M36" s="7">
-        <v>474</v>
+        <v>295</v>
       </c>
       <c r="N36" s="7">
-        <v>296340</v>
+        <v>166970</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3365,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D37" s="7">
-        <v>29694</v>
+        <v>20697</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I37" s="7">
-        <v>22428</v>
+        <v>8304</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="M37" s="7">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="N37" s="7">
-        <v>52122</v>
+        <v>29001</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,49 +3416,49 @@
         <v>50</v>
       </c>
       <c r="C38" s="7">
+        <v>7</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4383</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="7">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7">
+        <v>2102</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M38" s="7">
         <v>11</v>
       </c>
-      <c r="D38" s="7">
-        <v>7739</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="7">
-        <v>10</v>
-      </c>
-      <c r="I38" s="7">
-        <v>6077</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M38" s="7">
-        <v>21</v>
-      </c>
       <c r="N38" s="7">
-        <v>13816</v>
+        <v>6484</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,10 +3467,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D39" s="7">
-        <v>695717</v>
+        <v>366812</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3320,10 +3482,10 @@
         <v>60</v>
       </c>
       <c r="H39" s="7">
-        <v>1701</v>
+        <v>822</v>
       </c>
       <c r="I39" s="7">
-        <v>1021024</v>
+        <v>603668</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3335,10 +3497,10 @@
         <v>60</v>
       </c>
       <c r="M39" s="7">
-        <v>2726</v>
+        <v>1390</v>
       </c>
       <c r="N39" s="7">
-        <v>1716740</v>
+        <v>970479</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3352,55 +3514,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>994</v>
+        <v>241</v>
       </c>
       <c r="D40" s="7">
-        <v>864839</v>
+        <v>141225</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H40" s="7">
-        <v>1743</v>
+        <v>502</v>
       </c>
       <c r="I40" s="7">
-        <v>1182155</v>
+        <v>239185</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M40" s="7">
-        <v>2737</v>
+        <v>743</v>
       </c>
       <c r="N40" s="7">
-        <v>2046994</v>
+        <v>380410</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,49 +3571,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>1118</v>
+        <v>124</v>
       </c>
       <c r="D41" s="7">
-        <v>1064746</v>
+        <v>79879</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H41" s="7">
-        <v>1940</v>
+        <v>247</v>
       </c>
       <c r="I41" s="7">
-        <v>1320327</v>
+        <v>117116</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M41" s="7">
-        <v>3058</v>
+        <v>371</v>
       </c>
       <c r="N41" s="7">
-        <v>2385073</v>
+        <v>196995</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3622,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>990</v>
+        <v>77</v>
       </c>
       <c r="D42" s="7">
-        <v>1073296</v>
+        <v>51685</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="H42" s="7">
-        <v>1392</v>
+        <v>102</v>
       </c>
       <c r="I42" s="7">
-        <v>1061610</v>
+        <v>53682</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M42" s="7">
-        <v>2382</v>
+        <v>179</v>
       </c>
       <c r="N42" s="7">
-        <v>2134906</v>
+        <v>105367</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3673,49 @@
         <v>40</v>
       </c>
       <c r="C43" s="7">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="D43" s="7">
-        <v>239094</v>
+        <v>6886</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="H43" s="7">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="I43" s="7">
-        <v>182282</v>
+        <v>11750</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="M43" s="7">
-        <v>412</v>
+        <v>33</v>
       </c>
       <c r="N43" s="7">
-        <v>421377</v>
+        <v>18635</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>192</v>
+        <v>318</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,49 +3724,49 @@
         <v>50</v>
       </c>
       <c r="C44" s="7">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D44" s="7">
-        <v>138851</v>
+        <v>2517</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="H44" s="7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="I44" s="7">
-        <v>50135</v>
+        <v>3177</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M44" s="7">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="N44" s="7">
-        <v>188986</v>
+        <v>5693</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,63 +3775,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>457</v>
+      </c>
+      <c r="D45" s="7">
+        <v>282192</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="7">
+        <v>879</v>
+      </c>
+      <c r="I45" s="7">
+        <v>424909</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N45" s="7">
+        <v>707101</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>994</v>
+      </c>
+      <c r="D46" s="7">
+        <v>820511</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H46" s="7">
+        <v>1743</v>
+      </c>
+      <c r="I46" s="7">
+        <v>1180791</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M46" s="7">
+        <v>2737</v>
+      </c>
+      <c r="N46" s="7">
+        <v>2001302</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1118</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1017634</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1940</v>
+      </c>
+      <c r="I47" s="7">
+        <v>1202105</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3058</v>
+      </c>
+      <c r="N47" s="7">
+        <v>2219740</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>990</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1069325</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" s="7">
+        <v>1392</v>
+      </c>
+      <c r="I48" s="7">
+        <v>1062957</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M48" s="7">
+        <v>2382</v>
+      </c>
+      <c r="N48" s="7">
+        <v>2132282</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>198</v>
+      </c>
+      <c r="D49" s="7">
+        <v>227669</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H49" s="7">
+        <v>214</v>
+      </c>
+      <c r="I49" s="7">
+        <v>161779</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M49" s="7">
+        <v>412</v>
+      </c>
+      <c r="N49" s="7">
+        <v>389448</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7">
+        <v>71</v>
+      </c>
+      <c r="D50" s="7">
+        <v>320293</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H50" s="7">
+        <v>59</v>
+      </c>
+      <c r="I50" s="7">
+        <v>43380</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M50" s="7">
+        <v>130</v>
+      </c>
+      <c r="N50" s="7">
+        <v>363673</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3371</v>
       </c>
-      <c r="D45" s="7">
-        <v>3380826</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3455432</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" s="7">
         <v>5348</v>
       </c>
-      <c r="I45" s="7">
-        <v>3796510</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>3651012</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M51" s="7">
         <v>8719</v>
       </c>
-      <c r="N45" s="7">
-        <v>7177336</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>314</v>
+      <c r="N51" s="7">
+        <v>7106444</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
